--- a/timesheet/T26TimeSheet_ChungWaiMan_JUL2023.xlsx
+++ b/timesheet/T26TimeSheet_ChungWaiMan_JUL2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Contract Ref.: GCIO 5/2 (T26)</t>
   </si>
@@ -152,12 +152,6 @@
   </si>
   <si>
     <t>(see Note 5)</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
   </si>
   <si>
     <t>Total</t>
@@ -1693,8 +1687,8 @@
         <v>1</v>
       </c>
       <c r="B20" s="55"/>
-      <c r="C20" s="56" t="s">
-        <v>42</v>
+      <c r="C20" s="56">
+        <v>0</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="56">
@@ -1710,8 +1704,8 @@
         <v>0</v>
       </c>
       <c r="K20" s="56"/>
-      <c r="L20" s="56" t="s">
-        <v>43</v>
+      <c r="L20" s="56">
+        <v>1</v>
       </c>
       <c r="M20" s="56"/>
       <c r="N20" s="56">
@@ -1724,8 +1718,8 @@
         <v>2</v>
       </c>
       <c r="B21" s="55"/>
-      <c r="C21" s="56" t="s">
-        <v>42</v>
+      <c r="C21" s="56">
+        <v>0</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56">
@@ -1741,8 +1735,8 @@
         <v>0</v>
       </c>
       <c r="K21" s="56"/>
-      <c r="L21" s="56" t="s">
-        <v>43</v>
+      <c r="L21" s="56">
+        <v>1</v>
       </c>
       <c r="M21" s="56"/>
       <c r="N21" s="56">
@@ -1755,8 +1749,8 @@
         <v>3</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="56" t="s">
-        <v>43</v>
+      <c r="C22" s="56">
+        <v>1</v>
       </c>
       <c r="D22" s="56"/>
       <c r="E22" s="56">
@@ -1772,8 +1766,8 @@
         <v>0</v>
       </c>
       <c r="K22" s="56"/>
-      <c r="L22" s="56" t="s">
-        <v>42</v>
+      <c r="L22" s="56">
+        <v>0</v>
       </c>
       <c r="M22" s="56"/>
       <c r="N22" s="56">
@@ -1786,8 +1780,8 @@
         <v>4</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="56" t="s">
-        <v>43</v>
+      <c r="C23" s="56">
+        <v>1</v>
       </c>
       <c r="D23" s="56"/>
       <c r="E23" s="56">
@@ -1803,8 +1797,8 @@
         <v>0</v>
       </c>
       <c r="K23" s="56"/>
-      <c r="L23" s="56" t="s">
-        <v>42</v>
+      <c r="L23" s="56">
+        <v>0</v>
       </c>
       <c r="M23" s="56"/>
       <c r="N23" s="56">
@@ -1817,8 +1811,8 @@
         <v>5</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="56" t="s">
-        <v>43</v>
+      <c r="C24" s="56">
+        <v>1</v>
       </c>
       <c r="D24" s="56"/>
       <c r="E24" s="56">
@@ -1834,8 +1828,8 @@
         <v>0</v>
       </c>
       <c r="K24" s="56"/>
-      <c r="L24" s="56" t="s">
-        <v>42</v>
+      <c r="L24" s="56">
+        <v>0</v>
       </c>
       <c r="M24" s="56"/>
       <c r="N24" s="56">
@@ -1848,8 +1842,8 @@
         <v>6</v>
       </c>
       <c r="B25" s="55"/>
-      <c r="C25" s="56" t="s">
-        <v>43</v>
+      <c r="C25" s="56">
+        <v>1</v>
       </c>
       <c r="D25" s="56"/>
       <c r="E25" s="56">
@@ -1865,8 +1859,8 @@
         <v>0</v>
       </c>
       <c r="K25" s="56"/>
-      <c r="L25" s="56" t="s">
-        <v>42</v>
+      <c r="L25" s="56">
+        <v>0</v>
       </c>
       <c r="M25" s="56"/>
       <c r="N25" s="56">
@@ -1879,8 +1873,8 @@
         <v>7</v>
       </c>
       <c r="B26" s="55"/>
-      <c r="C26" s="56" t="s">
-        <v>43</v>
+      <c r="C26" s="56">
+        <v>1</v>
       </c>
       <c r="D26" s="56"/>
       <c r="E26" s="56">
@@ -1896,8 +1890,8 @@
         <v>0</v>
       </c>
       <c r="K26" s="56"/>
-      <c r="L26" s="56" t="s">
-        <v>42</v>
+      <c r="L26" s="56">
+        <v>0</v>
       </c>
       <c r="M26" s="56"/>
       <c r="N26" s="56">
@@ -1910,8 +1904,8 @@
         <v>8</v>
       </c>
       <c r="B27" s="55"/>
-      <c r="C27" s="56" t="s">
-        <v>42</v>
+      <c r="C27" s="56">
+        <v>0</v>
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="56">
@@ -1927,8 +1921,8 @@
         <v>0</v>
       </c>
       <c r="K27" s="56"/>
-      <c r="L27" s="56" t="s">
-        <v>43</v>
+      <c r="L27" s="56">
+        <v>1</v>
       </c>
       <c r="M27" s="56"/>
       <c r="N27" s="56">
@@ -1941,8 +1935,8 @@
         <v>9</v>
       </c>
       <c r="B28" s="55"/>
-      <c r="C28" s="56" t="s">
-        <v>42</v>
+      <c r="C28" s="56">
+        <v>0</v>
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="56">
@@ -1958,8 +1952,8 @@
         <v>0</v>
       </c>
       <c r="K28" s="56"/>
-      <c r="L28" s="56" t="s">
-        <v>43</v>
+      <c r="L28" s="56">
+        <v>1</v>
       </c>
       <c r="M28" s="56"/>
       <c r="N28" s="56">
@@ -1972,8 +1966,8 @@
         <v>10</v>
       </c>
       <c r="B29" s="55"/>
-      <c r="C29" s="56" t="s">
-        <v>43</v>
+      <c r="C29" s="56">
+        <v>1</v>
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="56">
@@ -1989,8 +1983,8 @@
         <v>0</v>
       </c>
       <c r="K29" s="56"/>
-      <c r="L29" s="56" t="s">
-        <v>42</v>
+      <c r="L29" s="56">
+        <v>0</v>
       </c>
       <c r="M29" s="56"/>
       <c r="N29" s="56">
@@ -2003,8 +1997,8 @@
         <v>11</v>
       </c>
       <c r="B30" s="55"/>
-      <c r="C30" s="56" t="s">
-        <v>43</v>
+      <c r="C30" s="56">
+        <v>1</v>
       </c>
       <c r="D30" s="56"/>
       <c r="E30" s="56">
@@ -2020,8 +2014,8 @@
         <v>0</v>
       </c>
       <c r="K30" s="56"/>
-      <c r="L30" s="56" t="s">
-        <v>42</v>
+      <c r="L30" s="56">
+        <v>0</v>
       </c>
       <c r="M30" s="56"/>
       <c r="N30" s="56">
@@ -2034,8 +2028,8 @@
         <v>12</v>
       </c>
       <c r="B31" s="55"/>
-      <c r="C31" s="56" t="s">
-        <v>43</v>
+      <c r="C31" s="56">
+        <v>1</v>
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="56">
@@ -2051,8 +2045,8 @@
         <v>0</v>
       </c>
       <c r="K31" s="56"/>
-      <c r="L31" s="56" t="s">
-        <v>42</v>
+      <c r="L31" s="56">
+        <v>0</v>
       </c>
       <c r="M31" s="56"/>
       <c r="N31" s="56">
@@ -2065,8 +2059,8 @@
         <v>13</v>
       </c>
       <c r="B32" s="55"/>
-      <c r="C32" s="56" t="s">
-        <v>43</v>
+      <c r="C32" s="56">
+        <v>1</v>
       </c>
       <c r="D32" s="56"/>
       <c r="E32" s="56">
@@ -2082,8 +2076,8 @@
         <v>0</v>
       </c>
       <c r="K32" s="56"/>
-      <c r="L32" s="56" t="s">
-        <v>42</v>
+      <c r="L32" s="56">
+        <v>0</v>
       </c>
       <c r="M32" s="56"/>
       <c r="N32" s="56">
@@ -2096,8 +2090,8 @@
         <v>14</v>
       </c>
       <c r="B33" s="55"/>
-      <c r="C33" s="56" t="s">
-        <v>43</v>
+      <c r="C33" s="56">
+        <v>1</v>
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="56">
@@ -2113,8 +2107,8 @@
         <v>0</v>
       </c>
       <c r="K33" s="56"/>
-      <c r="L33" s="56" t="s">
-        <v>42</v>
+      <c r="L33" s="56">
+        <v>0</v>
       </c>
       <c r="M33" s="56"/>
       <c r="N33" s="56">
@@ -2127,8 +2121,8 @@
         <v>15</v>
       </c>
       <c r="B34" s="55"/>
-      <c r="C34" s="56" t="s">
-        <v>42</v>
+      <c r="C34" s="56">
+        <v>0</v>
       </c>
       <c r="D34" s="56"/>
       <c r="E34" s="56">
@@ -2144,8 +2138,8 @@
         <v>0</v>
       </c>
       <c r="K34" s="56"/>
-      <c r="L34" s="56" t="s">
-        <v>43</v>
+      <c r="L34" s="56">
+        <v>1</v>
       </c>
       <c r="M34" s="56"/>
       <c r="N34" s="56">
@@ -2158,8 +2152,8 @@
         <v>16</v>
       </c>
       <c r="B35" s="55"/>
-      <c r="C35" s="56" t="s">
-        <v>42</v>
+      <c r="C35" s="56">
+        <v>0</v>
       </c>
       <c r="D35" s="56"/>
       <c r="E35" s="56">
@@ -2175,8 +2169,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="56"/>
-      <c r="L35" s="56" t="s">
-        <v>43</v>
+      <c r="L35" s="56">
+        <v>1</v>
       </c>
       <c r="M35" s="56"/>
       <c r="N35" s="56">
@@ -2189,8 +2183,8 @@
         <v>17</v>
       </c>
       <c r="B36" s="55"/>
-      <c r="C36" s="56" t="s">
-        <v>43</v>
+      <c r="C36" s="56">
+        <v>1</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="56">
@@ -2206,8 +2200,8 @@
         <v>0</v>
       </c>
       <c r="K36" s="56"/>
-      <c r="L36" s="56" t="s">
-        <v>42</v>
+      <c r="L36" s="56">
+        <v>0</v>
       </c>
       <c r="M36" s="56"/>
       <c r="N36" s="56">
@@ -2220,8 +2214,8 @@
         <v>18</v>
       </c>
       <c r="B37" s="55"/>
-      <c r="C37" s="56" t="s">
-        <v>43</v>
+      <c r="C37" s="56">
+        <v>1</v>
       </c>
       <c r="D37" s="56"/>
       <c r="E37" s="56">
@@ -2237,8 +2231,8 @@
         <v>0</v>
       </c>
       <c r="K37" s="56"/>
-      <c r="L37" s="56" t="s">
-        <v>42</v>
+      <c r="L37" s="56">
+        <v>0</v>
       </c>
       <c r="M37" s="56"/>
       <c r="N37" s="56">
@@ -2251,8 +2245,8 @@
         <v>19</v>
       </c>
       <c r="B38" s="55"/>
-      <c r="C38" s="56" t="s">
-        <v>43</v>
+      <c r="C38" s="56">
+        <v>1</v>
       </c>
       <c r="D38" s="56"/>
       <c r="E38" s="56">
@@ -2268,8 +2262,8 @@
         <v>0</v>
       </c>
       <c r="K38" s="56"/>
-      <c r="L38" s="56" t="s">
-        <v>42</v>
+      <c r="L38" s="56">
+        <v>0</v>
       </c>
       <c r="M38" s="56"/>
       <c r="N38" s="56">
@@ -2282,8 +2276,8 @@
         <v>20</v>
       </c>
       <c r="B39" s="55"/>
-      <c r="C39" s="56" t="s">
-        <v>43</v>
+      <c r="C39" s="56">
+        <v>1</v>
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="56">
@@ -2299,8 +2293,8 @@
         <v>0</v>
       </c>
       <c r="K39" s="56"/>
-      <c r="L39" s="56" t="s">
-        <v>42</v>
+      <c r="L39" s="56">
+        <v>0</v>
       </c>
       <c r="M39" s="56"/>
       <c r="N39" s="56">
@@ -2313,8 +2307,8 @@
         <v>21</v>
       </c>
       <c r="B40" s="55"/>
-      <c r="C40" s="56" t="s">
-        <v>43</v>
+      <c r="C40" s="56">
+        <v>1</v>
       </c>
       <c r="D40" s="56"/>
       <c r="E40" s="56">
@@ -2330,8 +2324,8 @@
         <v>0</v>
       </c>
       <c r="K40" s="56"/>
-      <c r="L40" s="56" t="s">
-        <v>42</v>
+      <c r="L40" s="56">
+        <v>0</v>
       </c>
       <c r="M40" s="56"/>
       <c r="N40" s="56">
@@ -2344,8 +2338,8 @@
         <v>22</v>
       </c>
       <c r="B41" s="55"/>
-      <c r="C41" s="56" t="s">
-        <v>42</v>
+      <c r="C41" s="56">
+        <v>0</v>
       </c>
       <c r="D41" s="56"/>
       <c r="E41" s="56">
@@ -2361,8 +2355,8 @@
         <v>0</v>
       </c>
       <c r="K41" s="56"/>
-      <c r="L41" s="56" t="s">
-        <v>43</v>
+      <c r="L41" s="56">
+        <v>1</v>
       </c>
       <c r="M41" s="56"/>
       <c r="N41" s="56">
@@ -2375,8 +2369,8 @@
         <v>23</v>
       </c>
       <c r="B42" s="55"/>
-      <c r="C42" s="56" t="s">
-        <v>42</v>
+      <c r="C42" s="56">
+        <v>0</v>
       </c>
       <c r="D42" s="56"/>
       <c r="E42" s="56">
@@ -2392,8 +2386,8 @@
         <v>0</v>
       </c>
       <c r="K42" s="56"/>
-      <c r="L42" s="56" t="s">
-        <v>43</v>
+      <c r="L42" s="56">
+        <v>1</v>
       </c>
       <c r="M42" s="56"/>
       <c r="N42" s="56">
@@ -2406,8 +2400,8 @@
         <v>24</v>
       </c>
       <c r="B43" s="55"/>
-      <c r="C43" s="56" t="s">
-        <v>43</v>
+      <c r="C43" s="56">
+        <v>1</v>
       </c>
       <c r="D43" s="56"/>
       <c r="E43" s="56">
@@ -2423,8 +2417,8 @@
         <v>0</v>
       </c>
       <c r="K43" s="56"/>
-      <c r="L43" s="56" t="s">
-        <v>42</v>
+      <c r="L43" s="56">
+        <v>0</v>
       </c>
       <c r="M43" s="56"/>
       <c r="N43" s="56">
@@ -2437,8 +2431,8 @@
         <v>25</v>
       </c>
       <c r="B44" s="55"/>
-      <c r="C44" s="56" t="s">
-        <v>43</v>
+      <c r="C44" s="56">
+        <v>1</v>
       </c>
       <c r="D44" s="56"/>
       <c r="E44" s="56">
@@ -2454,8 +2448,8 @@
         <v>0</v>
       </c>
       <c r="K44" s="56"/>
-      <c r="L44" s="56" t="s">
-        <v>42</v>
+      <c r="L44" s="56">
+        <v>0</v>
       </c>
       <c r="M44" s="56"/>
       <c r="N44" s="56">
@@ -2468,8 +2462,8 @@
         <v>26</v>
       </c>
       <c r="B45" s="55"/>
-      <c r="C45" s="56" t="s">
-        <v>43</v>
+      <c r="C45" s="56">
+        <v>1</v>
       </c>
       <c r="D45" s="56"/>
       <c r="E45" s="56">
@@ -2485,8 +2479,8 @@
         <v>0</v>
       </c>
       <c r="K45" s="56"/>
-      <c r="L45" s="56" t="s">
-        <v>42</v>
+      <c r="L45" s="56">
+        <v>0</v>
       </c>
       <c r="M45" s="56"/>
       <c r="N45" s="56">
@@ -2499,8 +2493,8 @@
         <v>27</v>
       </c>
       <c r="B46" s="55"/>
-      <c r="C46" s="56" t="s">
-        <v>43</v>
+      <c r="C46" s="56">
+        <v>1</v>
       </c>
       <c r="D46" s="56"/>
       <c r="E46" s="56">
@@ -2516,8 +2510,8 @@
         <v>0</v>
       </c>
       <c r="K46" s="56"/>
-      <c r="L46" s="56" t="s">
-        <v>42</v>
+      <c r="L46" s="56">
+        <v>0</v>
       </c>
       <c r="M46" s="56"/>
       <c r="N46" s="56">
@@ -2530,8 +2524,8 @@
         <v>28</v>
       </c>
       <c r="B47" s="55"/>
-      <c r="C47" s="56" t="s">
-        <v>43</v>
+      <c r="C47" s="56">
+        <v>1</v>
       </c>
       <c r="D47" s="56"/>
       <c r="E47" s="56">
@@ -2547,8 +2541,8 @@
         <v>0</v>
       </c>
       <c r="K47" s="56"/>
-      <c r="L47" s="56" t="s">
-        <v>42</v>
+      <c r="L47" s="56">
+        <v>0</v>
       </c>
       <c r="M47" s="56"/>
       <c r="N47" s="56">
@@ -2561,8 +2555,8 @@
         <v>29</v>
       </c>
       <c r="B48" s="55"/>
-      <c r="C48" s="56" t="s">
-        <v>42</v>
+      <c r="C48" s="56">
+        <v>0</v>
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="56">
@@ -2578,8 +2572,8 @@
         <v>0</v>
       </c>
       <c r="K48" s="56"/>
-      <c r="L48" s="56" t="s">
-        <v>43</v>
+      <c r="L48" s="56">
+        <v>1</v>
       </c>
       <c r="M48" s="56"/>
       <c r="N48" s="56">
@@ -2592,8 +2586,8 @@
         <v>30</v>
       </c>
       <c r="B49" s="55"/>
-      <c r="C49" s="56" t="s">
-        <v>42</v>
+      <c r="C49" s="56">
+        <v>0</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="56">
@@ -2609,8 +2603,8 @@
         <v>0</v>
       </c>
       <c r="K49" s="56"/>
-      <c r="L49" s="56" t="s">
-        <v>43</v>
+      <c r="L49" s="56">
+        <v>1</v>
       </c>
       <c r="M49" s="56"/>
       <c r="N49" s="56">
@@ -2623,8 +2617,8 @@
         <v>31</v>
       </c>
       <c r="B50" s="55"/>
-      <c r="C50" s="56" t="s">
-        <v>43</v>
+      <c r="C50" s="56">
+        <v>1</v>
       </c>
       <c r="D50" s="56"/>
       <c r="E50" s="56">
@@ -2640,8 +2634,8 @@
         <v>0</v>
       </c>
       <c r="K50" s="57"/>
-      <c r="L50" s="57" t="s">
-        <v>42</v>
+      <c r="L50" s="57">
+        <v>0</v>
       </c>
       <c r="M50" s="57"/>
       <c r="N50" s="57">
@@ -2651,7 +2645,7 @@
     </row>
     <row r="51" ht="21.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51" s="59"/>
       <c r="C51" s="56">
@@ -2675,7 +2669,7 @@
     </row>
     <row r="52" ht="12.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -2713,13 +2707,13 @@
     </row>
     <row r="54" ht="15.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54" s="82"/>
       <c r="C54" s="82"/>
       <c r="D54" s="83"/>
       <c r="F54" s="84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G54" s="85"/>
       <c r="H54" s="85"/>
@@ -2733,13 +2727,13 @@
     </row>
     <row r="55" ht="15.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B55" s="88"/>
       <c r="C55" s="88"/>
       <c r="D55" s="89"/>
       <c r="F55" s="90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G55" s="90"/>
       <c r="H55" s="90"/>
@@ -2773,7 +2767,7 @@
       <c r="C57" s="88"/>
       <c r="D57" s="89"/>
       <c r="F57" s="84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G57" s="85"/>
       <c r="H57" s="85"/>
@@ -2787,7 +2781,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58" s="94"/>
       <c r="C58" s="94"/>
@@ -2825,7 +2819,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2844,7 +2838,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" s="105"/>
       <c r="C61" s="105"/>
@@ -2863,10 +2857,10 @@
     </row>
     <row r="62" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="107" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" s="108" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C62" s="109"/>
       <c r="D62" s="109"/>
@@ -2884,10 +2878,10 @@
     </row>
     <row r="63" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63" s="111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C63" s="112"/>
       <c r="D63" s="112"/>
@@ -2939,10 +2933,10 @@
     </row>
     <row r="66" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B66" s="115" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C66" s="115"/>
       <c r="D66" s="115"/>
@@ -2960,10 +2954,10 @@
     </row>
     <row r="67" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B67" s="111" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C67" s="111"/>
       <c r="D67" s="111"/>
@@ -2998,10 +2992,10 @@
     </row>
     <row r="69" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B69" s="118" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C69" s="119"/>
       <c r="D69" s="119"/>
@@ -3019,10 +3013,10 @@
     </row>
     <row r="70" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C70" s="121"/>
       <c r="D70" s="121"/>
@@ -3074,7 +3068,7 @@
     </row>
     <row r="74" ht="12.95" customHeight="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="126" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
